--- a/Yifan/week-1/2019SummerLeetcode.xlsx
+++ b/Yifan/week-1/2019SummerLeetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrliu\iCloudDrive\Learning\Leetcode\2019SummerLeetcode\Yifan\week-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Library/Mobile Documents/com~apple~CloudDocs/Learning/Leetcode/2019SummerLeetcode/Yifan/week-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EE82CA-374A-4BC2-A18B-0774FD617AC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815D683E-9FB3-AC4B-97CE-05A492F012F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="2028" windowWidth="20760" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>题目编号</t>
     <rPh sb="0" eb="1">
@@ -163,6 +163,34 @@
   </si>
   <si>
     <t>按照同余关系，生成子序列后拼接。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照规则将字符串转换为数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据规则，考虑不同的情形，将筛选的条件一一列出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出特定的最值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接循环是o(n^2)，去除掉不需要考虑的情形，可以简化到on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据规则生成字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类讨论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,19 +548,19 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="78.296875" customWidth="1"/>
-    <col min="3" max="3" width="4.796875" customWidth="1"/>
-    <col min="4" max="4" width="25.296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.296875" customWidth="1"/>
-    <col min="7" max="7" width="36.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="78.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="32">
       <c r="A2">
         <v>2</v>
       </c>
@@ -576,7 +604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="32">
       <c r="A3">
         <v>3</v>
       </c>
@@ -597,7 +625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="32">
       <c r="A4">
         <v>5</v>
       </c>
@@ -615,7 +643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5">
         <v>6</v>
       </c>
@@ -636,31 +664,67 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="32">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32">
       <c r="A7">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>15</v>
       </c>
@@ -668,7 +732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>16</v>
       </c>
@@ -676,7 +740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>17</v>
       </c>

--- a/Yifan/week-1/2019SummerLeetcode.xlsx
+++ b/Yifan/week-1/2019SummerLeetcode.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Library/Mobile Documents/com~apple~CloudDocs/Learning/Leetcode/2019SummerLeetcode/Yifan/week-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815D683E-9FB3-AC4B-97CE-05A492F012F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B3FDFD-0996-7449-9B24-4E1E24818046}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="6180" windowWidth="14400" windowHeight="9660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>题目编号</t>
     <rPh sb="0" eb="1">
@@ -191,6 +191,37 @@
   </si>
   <si>
     <t>分类讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到三数之和是0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定最小值，然后转化为2sum问题，双指针查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到与指定数最接近的三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n^3)</t>
+  </si>
+  <si>
+    <t>思路类似3Sum，多指针查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成数字对应所有可能的字母序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表生成式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
@@ -724,28 +755,64 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="32">
       <c r="A9">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32">
       <c r="A10">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32">
       <c r="A11">
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
